--- a/bots/crawl_ch/output/toilet_coop_2022-08-14.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-14.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -805,7 +805,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1063,151 +1063,151 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6870057</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Kleenex Original 4x72 Stück</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-original-4x72-stueck/p/6870057</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>7</v>
-      </c>
+          <t>288ST</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>1.68/100ST</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Stück</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ST</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Kleenex Original 4x72 Stück 32% Aktion 4.85 Schweizer Franken statt 7.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6870057</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kleenex Original 4x72 Stück</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-original-4x72-stueck/p/6870057</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>288ST</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.68/100ST</t>
+          <t>0.33/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Preis pro 100 Stück</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>100ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Kleenex Original 4x72 Stück 32% Aktion 4.85 Schweizer Franken statt 7.20 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1613,123 +1613,121 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3630714</t>
+          <t>6870058</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück</t>
+          <t>Kleenex Ultrasoft Würfel 4x48 Stück</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
+          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-ultrasoft-wuerfel-4x48-stueck/p/6870058</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>55ST</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
+          <t>192ST</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>3.31/100ST</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Stück</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100ST</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
+          <t>Kleenex Ultrasoft Würfel 4x48 Stück 32% Aktion 6.35 Schweizer Franken statt 9.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6577910</t>
+          <t>3630714</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>55ST</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.06/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1739,7 +1737,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1749,88 +1747,90 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6870058</t>
+          <t>6577910</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kleenex Ultrasoft Würfel 4x48 Stück</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/gesichtspflege/kosmetiktuecher-watte/kosmetiktuecher/kleenex-ultrasoft-wuerfel-4x48-stueck/p/6870058</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/naturaline-kids-feuchtes-toilettenpapier/p/6577910</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>192ST</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>50ST</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.31/100ST</t>
+          <t>0.06/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Preis pro 100 Stück</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>100ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'gesichtspflege', 'kosmetiktuecher-watte', 'kosmetiktuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Kleenex Ultrasoft Würfel 4x48 Stück 32% Aktion 6.35 Schweizer Franken statt 9.40 Schweizer Franken</t>
+          <t>Naturaline Kids feuchtes Toilettenpapier 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -2047,48 +2047,50 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6865139</t>
+          <t>3650495</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kleenex Balsam Box 4x56 Stück</t>
+          <t>Oecoplan Taschentücher Classic 42x10Stück</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-balsam-box-4x56-stueck/p/6865139</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuecher-classic-42x10stueck/p/3650495</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>224ST</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>42ST</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Kleenex</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2098,7 +2100,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2113,55 +2115,53 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Kleenex Balsam Box 4x56 Stück 30% Aktion 6.95 Schweizer Franken statt 10.00 Schweizer Franken</t>
+          <t>Oecoplan Taschentücher Classic 42x10Stück 22% Aktion 4.95 Schweizer Franken statt 6.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6800946</t>
+          <t>6865139</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück</t>
+          <t>Kleenex Balsam Box 4x56 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/kleenex-balsam-box-4x56-stueck/p/6865139</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>144ST</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
+          <t>224ST</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hipp</t>
+          <t>Kleenex</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.07/1ST</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2181,60 +2181,60 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
+          <t>Kleenex Balsam Box 4x56 Stück 30% Aktion 6.95 Schweizer Franken statt 10.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3650495</t>
+          <t>6800946</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher Classic 42x10Stück</t>
+          <t>Hipp Natural zart duftend 3x48 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-taschentuecher-classic-42x10stueck/p/3650495</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/hipp-natural-zart-duftend-3x48-stueck/p/6800946</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>42ST</t>
+          <t>144ST</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hipp</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.07/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2254,17 +2254,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentücher Classic 42x10Stück 22% Aktion 4.95 Schweizer Franken statt 6.40 Schweizer Franken</t>
+          <t>Hipp Natural zart duftend 3x48 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-14 07:00:57</t>
+          <t>2022-08-14 20:57:05</t>
         </is>
       </c>
     </row>
